--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,96 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angga\Desktop\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taufiq-TFQ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45DF3F9-0B41-4982-AE1B-4DE983C9E7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F3927613-B380-4543-977B-DDFC0723D1D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>ABR</t>
-  </si>
-  <si>
-    <t>BDN</t>
-  </si>
-  <si>
-    <t>BMK</t>
-  </si>
-  <si>
-    <t>BOJ</t>
-  </si>
-  <si>
-    <t>BWE</t>
-  </si>
-  <si>
-    <t>GNK</t>
-  </si>
-  <si>
-    <t>JHR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+  <si>
+    <t>NOSS_ID</t>
+  </si>
+  <si>
+    <t>ODP_INDEX</t>
+  </si>
+  <si>
+    <t>ODP_NAME</t>
+  </si>
+  <si>
+    <t>ODP 3 DIGIT</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>CLUSNAME</t>
+  </si>
+  <si>
+    <t>CLUSTERSATATUS</t>
+  </si>
+  <si>
+    <t>AVAI</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>RSV</t>
+  </si>
+  <si>
+    <t>RSK</t>
+  </si>
+  <si>
+    <t>IS_TOTAL</t>
+  </si>
+  <si>
+    <t>REGIONAL</t>
+  </si>
+  <si>
+    <t>WITEL</t>
+  </si>
+  <si>
+    <t>DATEL</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
+    <t>STO_DESC</t>
+  </si>
+  <si>
+    <t>ODP_INFO</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4134868566.0</t>
+  </si>
+  <si>
+    <t>FAC/D02/027.01</t>
+  </si>
+  <si>
+    <t>ODP-KDL-FAC/027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0</t>
+  </si>
+  <si>
+    <t>KENDAL</t>
   </si>
   <si>
     <t>KDL</t>
   </si>
   <si>
-    <t>MJE</t>
-  </si>
-  <si>
-    <t>MJP</t>
-  </si>
-  <si>
-    <t>MKG</t>
-  </si>
-  <si>
-    <t>SKR</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>SMT</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>UNR</t>
-  </si>
-  <si>
-    <t>WLR</t>
-  </si>
-  <si>
-    <t>WNJ</t>
+    <t xml:space="preserve"> 4134868652.0</t>
+  </si>
+  <si>
+    <t>FAC/D02/028.01</t>
+  </si>
+  <si>
+    <t>ODP-KDL-FAC/028</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>WTL4</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>ODP-KDL-FAC/038</t>
+  </si>
+  <si>
+    <t>ODP-KDL-FAC/039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,8 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,7 +208,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -168,7 +220,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -215,23 +267,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -267,23 +302,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,103 +453,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD6191-867E-4855-8809-9C01B91B562C}">
-  <dimension ref="B1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" s="1">
+        <v>-6965809645</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11013895754</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>43767.371921296297</v>
+      </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-6966246309</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11014075641</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>43767.422962962963</v>
       </c>
     </row>
   </sheetData>
